--- a/phase1_temporary/phase 1- Data type_ver3.xlsx
+++ b/phase1_temporary/phase 1- Data type_ver3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OMSA\CS6400\Project Phase1\GH\cs6400-2021-03-Team022\phase1_temporary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB68C157-795C-490F-938E-0265152FF26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6401F5-0389-41B3-A707-E38C1B12753D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -356,9 +356,6 @@
     <t>Boolen</t>
   </si>
   <si>
-    <t>Nullable</t>
-  </si>
-  <si>
     <t>Not Null</t>
   </si>
   <si>
@@ -366,6 +363,9 @@
   </si>
   <si>
     <t>Needs Relationship</t>
+  </si>
+  <si>
+    <t>Null</t>
   </si>
 </sst>
 </file>
@@ -839,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -1426,7 +1426,7 @@
         <v>63</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>72</v>
@@ -1480,15 +1480,15 @@
         <v>86</v>
       </c>
       <c r="D58" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" s="11" t="s">
         <v>88</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="60" spans="2:5">
       <c r="B60" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="2:5">

--- a/phase1_temporary/phase 1- Data type_ver3.xlsx
+++ b/phase1_temporary/phase 1- Data type_ver3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OMSA\CS6400\Project Phase1\GH\cs6400-2021-03-Team022\phase1_temporary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6401F5-0389-41B3-A707-E38C1B12753D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64861417-150B-4D45-BE2F-E58F3857557F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="90">
   <si>
     <t>Data Types:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,15 +341,6 @@
     <t>Non-negative</t>
   </si>
   <si>
-    <t>two decimal points, such as 125.50, non-negative</t>
-  </si>
-  <si>
-    <t>two decimal points, such as 12500.00, positve</t>
-  </si>
-  <si>
-    <t>two decimal points, such as 10000.50, positve</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -366,6 +357,12 @@
   </si>
   <si>
     <t>Null</t>
+  </si>
+  <si>
+    <t>two digits after decimal point, positve</t>
+  </si>
+  <si>
+    <t>two digits after decimal point, non-negative</t>
   </si>
 </sst>
 </file>
@@ -837,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E91"/>
+  <dimension ref="A2:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -848,20 +845,21 @@
     <col min="2" max="2" width="26.09765625" customWidth="1"/>
     <col min="3" max="3" width="21.09765625" customWidth="1"/>
     <col min="4" max="4" width="23.3984375" customWidth="1"/>
-    <col min="5" max="5" width="47.69921875" customWidth="1"/>
+    <col min="5" max="5" width="6.3984375" customWidth="1"/>
+    <col min="6" max="6" width="38.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.2" thickBot="1">
+    <row r="5" spans="1:6" ht="16.2" thickBot="1">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -871,11 +869,11 @@
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="B6" s="4" t="s">
         <v>53</v>
       </c>
@@ -885,9 +883,9 @@
       <c r="D6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="B7" s="4" t="s">
         <v>54</v>
       </c>
@@ -897,9 +895,9 @@
       <c r="D7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -909,9 +907,9 @@
       <c r="D8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -921,9 +919,9 @@
       <c r="D9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -933,14 +931,14 @@
       <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.2" thickBot="1">
+    <row r="13" spans="1:6" ht="16.2" thickBot="1">
       <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
@@ -950,11 +948,11 @@
       <c r="D13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
@@ -964,9 +962,9 @@
       <c r="D14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
@@ -976,11 +974,11 @@
       <c r="D15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
@@ -990,9 +988,9 @@
       <c r="D16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="2:5">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:6">
       <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
@@ -1002,9 +1000,9 @@
       <c r="D17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1014,11 +1012,11 @@
       <c r="D18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:6">
       <c r="B19" s="1" t="s">
         <v>71</v>
       </c>
@@ -1028,11 +1026,11 @@
       <c r="D19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:6">
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
@@ -1042,11 +1040,11 @@
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
+      <c r="F20" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
       <c r="B21" s="3" t="s">
         <v>12</v>
       </c>
@@ -1056,11 +1054,11 @@
       <c r="D21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:6">
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
@@ -1070,9 +1068,9 @@
       <c r="D22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="2:5">
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="2:6">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
@@ -1082,11 +1080,11 @@
       <c r="D23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
+      <c r="F23" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
       <c r="B24" s="1" t="s">
         <v>15</v>
       </c>
@@ -1096,14 +1094,14 @@
       <c r="D24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="26" spans="2:5">
+      <c r="F24" s="1"/>
+    </row>
+    <row r="26" spans="2:6">
       <c r="B26" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="16.2" thickBot="1">
+    <row r="27" spans="2:6" ht="16.2" thickBot="1">
       <c r="B27" s="5" t="s">
         <v>2</v>
       </c>
@@ -1113,11 +1111,11 @@
       <c r="D27" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="2:6">
       <c r="B28" s="1" t="s">
         <v>18</v>
       </c>
@@ -1127,11 +1125,11 @@
       <c r="D28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="2:6">
       <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
@@ -1141,11 +1139,11 @@
       <c r="D29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="2:6">
       <c r="B30" s="1" t="s">
         <v>19</v>
       </c>
@@ -1155,11 +1153,11 @@
       <c r="D30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="2:6">
       <c r="B31" s="1" t="s">
         <v>16</v>
       </c>
@@ -1169,9 +1167,9 @@
       <c r="D31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="10"/>
-    </row>
-    <row r="32" spans="2:5">
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="2:6">
       <c r="B32" s="1" t="s">
         <v>6</v>
       </c>
@@ -1181,9 +1179,9 @@
       <c r="D32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33" spans="2:5">
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="2:6">
       <c r="B33" s="1" t="s">
         <v>57</v>
       </c>
@@ -1193,20 +1191,20 @@
       <c r="D33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="2:5">
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="2:6">
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="2:5">
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="2:6">
       <c r="B35" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="16.2" thickBot="1">
+    <row r="36" spans="2:6" ht="16.2" thickBot="1">
       <c r="B36" s="5" t="s">
         <v>2</v>
       </c>
@@ -1216,11 +1214,11 @@
       <c r="D36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="2:5">
+    <row r="37" spans="2:6">
       <c r="B37" s="1" t="s">
         <v>18</v>
       </c>
@@ -1230,11 +1228,11 @@
       <c r="D37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="2:5">
+    <row r="38" spans="2:6">
       <c r="B38" s="1" t="s">
         <v>55</v>
       </c>
@@ -1244,11 +1242,11 @@
       <c r="D38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="2:5">
+    <row r="39" spans="2:6">
       <c r="B39" s="1" t="s">
         <v>19</v>
       </c>
@@ -1258,11 +1256,11 @@
       <c r="D39" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="2:5">
+    <row r="40" spans="2:6">
       <c r="B40" s="1" t="s">
         <v>17</v>
       </c>
@@ -1272,11 +1270,11 @@
       <c r="D40" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="2:5">
+    <row r="41" spans="2:6">
       <c r="B41" s="1" t="s">
         <v>59</v>
       </c>
@@ -1286,9 +1284,9 @@
       <c r="D41" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="10"/>
-    </row>
-    <row r="42" spans="2:5">
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="2:6">
       <c r="B42" s="1" t="s">
         <v>61</v>
       </c>
@@ -1298,9 +1296,9 @@
       <c r="D42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E42" s="10"/>
-    </row>
-    <row r="43" spans="2:5">
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="2:6">
       <c r="B43" s="1" t="s">
         <v>60</v>
       </c>
@@ -1310,20 +1308,20 @@
       <c r="D43" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="10"/>
-    </row>
-    <row r="44" spans="2:5">
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="2:6">
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-    </row>
-    <row r="45" spans="2:5">
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="2:6">
       <c r="B45" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="16.2" thickBot="1">
+    <row r="46" spans="2:6" ht="16.2" thickBot="1">
       <c r="B46" s="5" t="s">
         <v>2</v>
       </c>
@@ -1333,11 +1331,11 @@
       <c r="D46" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="F46" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="2:5">
+    <row r="47" spans="2:6">
       <c r="B47" s="1" t="s">
         <v>29</v>
       </c>
@@ -1347,11 +1345,11 @@
       <c r="D47" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5">
+      <c r="F47" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
       <c r="B48" s="1" t="s">
         <v>62</v>
       </c>
@@ -1361,22 +1359,22 @@
       <c r="D48" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="2:5">
+    <row r="49" spans="2:6">
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-    </row>
-    <row r="50" spans="2:5">
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="2:6">
       <c r="B50" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="16.2" thickBot="1">
+    <row r="51" spans="2:6" ht="16.2" thickBot="1">
       <c r="B51" s="5" t="s">
         <v>2</v>
       </c>
@@ -1386,11 +1384,11 @@
       <c r="D51" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="F51" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="2:5">
+    <row r="52" spans="2:6">
       <c r="B52" s="1" t="s">
         <v>21</v>
       </c>
@@ -1400,11 +1398,11 @@
       <c r="D52" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5">
+      <c r="F52" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
       <c r="B53" s="1" t="s">
         <v>22</v>
       </c>
@@ -1414,11 +1412,11 @@
       <c r="D53" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="2:5">
+    <row r="54" spans="2:6">
       <c r="B54" s="1" t="s">
         <v>23</v>
       </c>
@@ -1426,13 +1424,13 @@
         <v>63</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="2:5">
+    <row r="55" spans="2:6">
       <c r="B55" s="1" t="s">
         <v>24</v>
       </c>
@@ -1442,11 +1440,11 @@
       <c r="D55" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="2:5">
+    <row r="56" spans="2:6">
       <c r="B56" s="1" t="s">
         <v>13</v>
       </c>
@@ -1456,9 +1454,9 @@
       <c r="D56" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="2:5">
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="2:6">
       <c r="B57" s="1" t="s">
         <v>25</v>
       </c>
@@ -1468,30 +1466,30 @@
       <c r="D57" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="F57" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="11" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="58" spans="2:5">
-      <c r="B58" s="11" t="s">
+      <c r="C58" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F58" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C58" s="11" t="s">
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D58" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5">
-      <c r="B60" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5">
+    </row>
+    <row r="61" spans="2:6">
       <c r="B61" s="11" t="s">
         <v>27</v>
       </c>
@@ -1501,16 +1499,16 @@
       <c r="D61" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="F61" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="2:5">
+    <row r="63" spans="2:6">
       <c r="B63" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="2:5" ht="16.2" thickBot="1">
+    <row r="64" spans="2:6" ht="16.2" thickBot="1">
       <c r="B64" s="5" t="s">
         <v>2</v>
       </c>
@@ -1520,11 +1518,11 @@
       <c r="D64" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="F64" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="2:5">
+    <row r="65" spans="2:6">
       <c r="B65" s="1" t="s">
         <v>37</v>
       </c>
@@ -1534,11 +1532,11 @@
       <c r="D65" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5">
+      <c r="F65" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
       <c r="B66" s="1" t="s">
         <v>36</v>
       </c>
@@ -1548,14 +1546,14 @@
       <c r="D66" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="68" spans="2:5">
+      <c r="F66" s="1"/>
+    </row>
+    <row r="68" spans="2:6">
       <c r="B68" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="16.2" thickBot="1">
+    <row r="69" spans="2:6" ht="16.2" thickBot="1">
       <c r="B69" s="5" t="s">
         <v>2</v>
       </c>
@@ -1565,11 +1563,11 @@
       <c r="D69" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="F69" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="2:5">
+    <row r="70" spans="2:6">
       <c r="B70" s="1" t="s">
         <v>39</v>
       </c>
@@ -1579,16 +1577,16 @@
       <c r="D70" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="2:5">
+    <row r="73" spans="2:6">
       <c r="B73" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="2:5" ht="16.2" thickBot="1">
+    <row r="74" spans="2:6" ht="16.2" thickBot="1">
       <c r="B74" s="5" t="s">
         <v>2</v>
       </c>
@@ -1598,11 +1596,11 @@
       <c r="D74" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="F74" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="2:5">
+    <row r="75" spans="2:6">
       <c r="B75" s="1" t="s">
         <v>41</v>
       </c>
@@ -1612,16 +1610,16 @@
       <c r="D75" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="2:5">
+    <row r="77" spans="2:6">
       <c r="B77" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="78" spans="2:5" ht="16.2" thickBot="1">
+    <row r="78" spans="2:6" ht="16.2" thickBot="1">
       <c r="B78" s="5" t="s">
         <v>2</v>
       </c>
@@ -1631,11 +1629,11 @@
       <c r="D78" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="F78" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="2:5">
+    <row r="79" spans="2:6">
       <c r="B79" s="1" t="s">
         <v>43</v>
       </c>
@@ -1645,9 +1643,9 @@
       <c r="D79" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E79" s="1"/>
-    </row>
-    <row r="80" spans="2:5">
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="2:6">
       <c r="B80" s="1" t="s">
         <v>47</v>
       </c>
@@ -1657,16 +1655,16 @@
       <c r="D80" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="F80" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="2:5">
+    <row r="82" spans="2:6">
       <c r="B82" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="83" spans="2:5" ht="16.2" thickBot="1">
+    <row r="83" spans="2:6" ht="16.2" thickBot="1">
       <c r="B83" s="5" t="s">
         <v>2</v>
       </c>
@@ -1676,11 +1674,11 @@
       <c r="D83" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="F83" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="2:5">
+    <row r="84" spans="2:6">
       <c r="B84" s="1" t="s">
         <v>45</v>
       </c>
@@ -1690,9 +1688,9 @@
       <c r="D84" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E84" s="1"/>
-    </row>
-    <row r="85" spans="2:5">
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="2:6">
       <c r="B85" s="1" t="s">
         <v>46</v>
       </c>
@@ -1702,16 +1700,16 @@
       <c r="D85" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="F85" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="2:5">
+    <row r="87" spans="2:6">
       <c r="B87" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="88" spans="2:5" ht="16.2" thickBot="1">
+    <row r="88" spans="2:6" ht="16.2" thickBot="1">
       <c r="B88" s="5" t="s">
         <v>2</v>
       </c>
@@ -1721,11 +1719,11 @@
       <c r="D88" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E88" s="5" t="s">
+      <c r="F88" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="2:5">
+    <row r="89" spans="2:6">
       <c r="B89" s="1" t="s">
         <v>49</v>
       </c>
@@ -1735,11 +1733,11 @@
       <c r="D89" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="F89" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="90" spans="2:5">
+    <row r="90" spans="2:6">
       <c r="B90" s="1" t="s">
         <v>50</v>
       </c>
@@ -1749,11 +1747,11 @@
       <c r="D90" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="F90" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="2:5">
+    <row r="91" spans="2:6">
       <c r="B91" s="1" t="s">
         <v>51</v>
       </c>
@@ -1763,7 +1761,7 @@
       <c r="D91" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
